--- a/Awards/Men/Cross Country.xlsx
+++ b/Awards/Men/Cross Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\Awards\Men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F513F5-55A3-4959-B115-BE5AD5503345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F268589E-ABDD-425E-8A83-49E5905FB987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="612" windowWidth="17280" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="85">
   <si>
     <t>Year</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>Patrick Waldo</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Midwest Conference</t>
   </si>
 </sst>
 </file>
@@ -593,19 +605,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +628,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2003</v>
       </c>
@@ -626,8 +642,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2013</v>
       </c>
@@ -637,8 +656,11 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
@@ -648,8 +670,11 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2010</v>
       </c>
@@ -659,8 +684,11 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -670,8 +698,11 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2010</v>
       </c>
@@ -681,8 +712,11 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -692,8 +726,11 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2010</v>
       </c>
@@ -703,8 +740,11 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -714,8 +754,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2010</v>
       </c>
@@ -725,8 +768,11 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2009</v>
       </c>
@@ -736,8 +782,11 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -747,8 +796,11 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2008</v>
       </c>
@@ -758,8 +810,11 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -769,8 +824,11 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2008</v>
       </c>
@@ -780,8 +838,11 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -791,8 +852,11 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2008</v>
       </c>
@@ -802,8 +866,11 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2008</v>
       </c>
@@ -813,8 +880,11 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
@@ -824,8 +894,11 @@
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2006</v>
       </c>
@@ -835,8 +908,11 @@
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2004</v>
       </c>
@@ -846,8 +922,11 @@
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2003</v>
       </c>
@@ -857,8 +936,11 @@
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2009</v>
       </c>
@@ -868,8 +950,11 @@
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2004</v>
       </c>
@@ -879,8 +964,11 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2024</v>
       </c>
@@ -890,8 +978,11 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2024</v>
       </c>
@@ -901,8 +992,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2019</v>
       </c>
@@ -912,8 +1006,11 @@
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -923,8 +1020,11 @@
       <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -934,8 +1034,11 @@
       <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -945,8 +1048,11 @@
       <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2013</v>
       </c>
@@ -956,8 +1062,11 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -967,8 +1076,11 @@
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2012</v>
       </c>
@@ -978,8 +1090,11 @@
       <c r="C34" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2012</v>
       </c>
@@ -989,8 +1104,11 @@
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2011</v>
       </c>
@@ -1000,8 +1118,11 @@
       <c r="C36" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2010</v>
       </c>
@@ -1011,8 +1132,11 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2010</v>
       </c>
@@ -1022,8 +1146,11 @@
       <c r="C38" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2010</v>
       </c>
@@ -1033,8 +1160,11 @@
       <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2010</v>
       </c>
@@ -1044,8 +1174,11 @@
       <c r="C40" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2009</v>
       </c>
@@ -1055,8 +1188,11 @@
       <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2009</v>
       </c>
@@ -1066,8 +1202,11 @@
       <c r="C42" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2008</v>
       </c>
@@ -1077,8 +1216,11 @@
       <c r="C43" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2008</v>
       </c>
@@ -1088,8 +1230,11 @@
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2006</v>
       </c>
@@ -1099,8 +1244,11 @@
       <c r="C45" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2019</v>
       </c>
@@ -1110,8 +1258,11 @@
       <c r="C46" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2018</v>
       </c>
@@ -1121,8 +1272,11 @@
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -1132,8 +1286,11 @@
       <c r="C48" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2015</v>
       </c>
@@ -1143,8 +1300,11 @@
       <c r="C49" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2013</v>
       </c>
@@ -1154,8 +1314,11 @@
       <c r="C50" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2012</v>
       </c>
@@ -1165,8 +1328,11 @@
       <c r="C51" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2012</v>
       </c>
@@ -1176,8 +1342,11 @@
       <c r="C52" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2011</v>
       </c>
@@ -1187,8 +1356,11 @@
       <c r="C53" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2010</v>
       </c>
@@ -1198,8 +1370,11 @@
       <c r="C54" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2010</v>
       </c>
@@ -1209,8 +1384,11 @@
       <c r="C55" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2010</v>
       </c>
@@ -1220,8 +1398,11 @@
       <c r="C56" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2010</v>
       </c>
@@ -1231,8 +1412,11 @@
       <c r="C57" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2010</v>
       </c>
@@ -1242,8 +1426,11 @@
       <c r="C58" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2009</v>
       </c>
@@ -1253,8 +1440,11 @@
       <c r="C59" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2009</v>
       </c>
@@ -1264,8 +1454,11 @@
       <c r="C60" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2009</v>
       </c>
@@ -1275,8 +1468,11 @@
       <c r="C61" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2008</v>
       </c>
@@ -1286,8 +1482,11 @@
       <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2008</v>
       </c>
@@ -1297,8 +1496,11 @@
       <c r="C63" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2008</v>
       </c>
@@ -1308,8 +1510,11 @@
       <c r="C64" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2008</v>
       </c>
@@ -1319,8 +1524,11 @@
       <c r="C65" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2007</v>
       </c>
@@ -1330,8 +1538,11 @@
       <c r="C66" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2007</v>
       </c>
@@ -1341,8 +1552,11 @@
       <c r="C67" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2006</v>
       </c>
@@ -1352,8 +1566,11 @@
       <c r="C68" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2006</v>
       </c>
@@ -1363,8 +1580,11 @@
       <c r="C69" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2006</v>
       </c>
@@ -1374,8 +1594,11 @@
       <c r="C70" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2005</v>
       </c>
@@ -1385,8 +1608,11 @@
       <c r="C71" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2004</v>
       </c>
@@ -1396,8 +1622,11 @@
       <c r="C72" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2004</v>
       </c>
@@ -1407,8 +1636,11 @@
       <c r="C73" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2004</v>
       </c>
@@ -1418,8 +1650,11 @@
       <c r="C74" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>2004</v>
       </c>
@@ -1429,8 +1664,11 @@
       <c r="C75" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2003</v>
       </c>
@@ -1440,8 +1678,11 @@
       <c r="C76" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2003</v>
       </c>
@@ -1451,8 +1692,11 @@
       <c r="C77" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2010</v>
       </c>
@@ -1462,8 +1706,11 @@
       <c r="C78" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>2024</v>
       </c>
@@ -1473,8 +1720,11 @@
       <c r="C79" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>2024</v>
       </c>
@@ -1484,8 +1734,11 @@
       <c r="C80" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2023</v>
       </c>
@@ -1495,8 +1748,11 @@
       <c r="C81" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2023</v>
       </c>
@@ -1506,8 +1762,11 @@
       <c r="C82" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2023</v>
       </c>
@@ -1517,8 +1776,11 @@
       <c r="C83" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2014</v>
       </c>
@@ -1528,8 +1790,11 @@
       <c r="C84" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2009</v>
       </c>
@@ -1539,8 +1804,11 @@
       <c r="C85" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2004</v>
       </c>
@@ -1550,8 +1818,11 @@
       <c r="C86" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>2023</v>
       </c>
@@ -1561,8 +1832,11 @@
       <c r="C87" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2013</v>
       </c>
@@ -1572,8 +1846,11 @@
       <c r="C88" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2012</v>
       </c>
@@ -1583,8 +1860,11 @@
       <c r="C89" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2010</v>
       </c>
@@ -1594,8 +1874,11 @@
       <c r="C90" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2009</v>
       </c>
@@ -1605,8 +1888,11 @@
       <c r="C91" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>2008</v>
       </c>
@@ -1616,8 +1902,11 @@
       <c r="C92" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>2006</v>
       </c>
@@ -1627,8 +1916,11 @@
       <c r="C93" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>2003</v>
       </c>
@@ -1638,8 +1930,11 @@
       <c r="C94" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2022</v>
       </c>
@@ -1649,8 +1944,11 @@
       <c r="C95" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>2019</v>
       </c>
@@ -1660,8 +1958,11 @@
       <c r="C96" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2017</v>
       </c>
@@ -1671,8 +1972,11 @@
       <c r="C97" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>2023</v>
       </c>
@@ -1682,8 +1986,11 @@
       <c r="C98" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>2019</v>
       </c>
@@ -1693,8 +2000,11 @@
       <c r="C99" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>2016</v>
       </c>
@@ -1704,8 +2014,11 @@
       <c r="C100" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2015</v>
       </c>
@@ -1715,8 +2028,11 @@
       <c r="C101" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>2013</v>
       </c>
@@ -1726,8 +2042,11 @@
       <c r="C102" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2012</v>
       </c>
@@ -1737,8 +2056,11 @@
       <c r="C103" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2010</v>
       </c>
@@ -1748,8 +2070,11 @@
       <c r="C104" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2009</v>
       </c>
@@ -1759,8 +2084,11 @@
       <c r="C105" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2008</v>
       </c>
@@ -1770,8 +2098,11 @@
       <c r="C106" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2005</v>
       </c>
@@ -1781,8 +2112,11 @@
       <c r="C107" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2004</v>
       </c>
@@ -1792,8 +2126,11 @@
       <c r="C108" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2003</v>
       </c>
@@ -1803,8 +2140,11 @@
       <c r="C109" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2023</v>
       </c>
@@ -1814,8 +2154,11 @@
       <c r="C110" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2009</v>
       </c>
@@ -1825,8 +2168,11 @@
       <c r="C111" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2008</v>
       </c>
@@ -1836,8 +2182,11 @@
       <c r="C112" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2024</v>
       </c>
@@ -1847,8 +2196,11 @@
       <c r="C113" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2024</v>
       </c>
@@ -1858,8 +2210,11 @@
       <c r="C114" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2024</v>
       </c>
@@ -1869,8 +2224,11 @@
       <c r="C115" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>2023</v>
       </c>
@@ -1880,8 +2238,11 @@
       <c r="C116" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2023</v>
       </c>
@@ -1891,8 +2252,11 @@
       <c r="C117" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>2023</v>
       </c>
@@ -1902,8 +2266,11 @@
       <c r="C118" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2023</v>
       </c>
@@ -1913,8 +2280,11 @@
       <c r="C119" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2023</v>
       </c>
@@ -1924,8 +2294,11 @@
       <c r="C120" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2023</v>
       </c>
@@ -1935,8 +2308,11 @@
       <c r="C121" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2022</v>
       </c>
@@ -1946,8 +2322,11 @@
       <c r="C122" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2022</v>
       </c>
@@ -1957,8 +2336,11 @@
       <c r="C123" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2022</v>
       </c>
@@ -1968,8 +2350,11 @@
       <c r="C124" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2022</v>
       </c>
@@ -1979,8 +2364,11 @@
       <c r="C125" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2021</v>
       </c>
@@ -1990,8 +2378,11 @@
       <c r="C126" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2021</v>
       </c>
@@ -2001,8 +2392,11 @@
       <c r="C127" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2021</v>
       </c>
@@ -2012,8 +2406,11 @@
       <c r="C128" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2021</v>
       </c>
@@ -2023,8 +2420,11 @@
       <c r="C129" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2021</v>
       </c>
@@ -2034,8 +2434,11 @@
       <c r="C130" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2019</v>
       </c>
@@ -2045,8 +2448,11 @@
       <c r="C131" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2019</v>
       </c>
@@ -2056,8 +2462,11 @@
       <c r="C132" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2019</v>
       </c>
@@ -2067,8 +2476,11 @@
       <c r="C133" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2019</v>
       </c>
@@ -2078,8 +2490,11 @@
       <c r="C134" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2018</v>
       </c>
@@ -2089,8 +2504,11 @@
       <c r="C135" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2018</v>
       </c>
@@ -2100,8 +2518,11 @@
       <c r="C136" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2018</v>
       </c>
@@ -2111,8 +2532,11 @@
       <c r="C137" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2018</v>
       </c>
@@ -2122,8 +2546,11 @@
       <c r="C138" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2017</v>
       </c>
@@ -2133,8 +2560,11 @@
       <c r="C139" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2017</v>
       </c>
@@ -2144,8 +2574,11 @@
       <c r="C140" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2017</v>
       </c>
@@ -2155,8 +2588,11 @@
       <c r="C141" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2017</v>
       </c>
@@ -2166,8 +2602,11 @@
       <c r="C142" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2017</v>
       </c>
@@ -2177,8 +2616,11 @@
       <c r="C143" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2017</v>
       </c>
@@ -2188,8 +2630,11 @@
       <c r="C144" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2017</v>
       </c>
@@ -2199,8 +2644,11 @@
       <c r="C145" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2016</v>
       </c>
@@ -2210,8 +2658,11 @@
       <c r="C146" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2016</v>
       </c>
@@ -2221,8 +2672,11 @@
       <c r="C147" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2016</v>
       </c>
@@ -2232,8 +2686,11 @@
       <c r="C148" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2016</v>
       </c>
@@ -2243,8 +2700,11 @@
       <c r="C149" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2016</v>
       </c>
@@ -2254,8 +2714,11 @@
       <c r="C150" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2016</v>
       </c>
@@ -2265,8 +2728,11 @@
       <c r="C151" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2015</v>
       </c>
@@ -2276,8 +2742,11 @@
       <c r="C152" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2015</v>
       </c>
@@ -2287,8 +2756,11 @@
       <c r="C153" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2015</v>
       </c>
@@ -2298,8 +2770,11 @@
       <c r="C154" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2014</v>
       </c>
@@ -2309,8 +2784,11 @@
       <c r="C155" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2014</v>
       </c>
@@ -2320,8 +2798,11 @@
       <c r="C156" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>2014</v>
       </c>
@@ -2331,8 +2812,11 @@
       <c r="C157" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2014</v>
       </c>
@@ -2342,8 +2826,11 @@
       <c r="C158" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2013</v>
       </c>
@@ -2353,8 +2840,11 @@
       <c r="C159" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2013</v>
       </c>
@@ -2364,8 +2854,11 @@
       <c r="C160" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2013</v>
       </c>
@@ -2375,8 +2868,11 @@
       <c r="C161" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2013</v>
       </c>
@@ -2386,8 +2882,11 @@
       <c r="C162" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2013</v>
       </c>
@@ -2397,8 +2896,11 @@
       <c r="C163" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>2013</v>
       </c>
@@ -2408,8 +2910,11 @@
       <c r="C164" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>2013</v>
       </c>
@@ -2419,8 +2924,11 @@
       <c r="C165" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>2013</v>
       </c>
@@ -2430,8 +2938,11 @@
       <c r="C166" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>2012</v>
       </c>
@@ -2441,8 +2952,11 @@
       <c r="C167" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>2012</v>
       </c>
@@ -2452,8 +2966,11 @@
       <c r="C168" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>2012</v>
       </c>
@@ -2463,8 +2980,11 @@
       <c r="C169" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>2012</v>
       </c>
@@ -2474,8 +2994,11 @@
       <c r="C170" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>2012</v>
       </c>
@@ -2485,8 +3008,11 @@
       <c r="C171" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>2012</v>
       </c>
@@ -2496,8 +3022,11 @@
       <c r="C172" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2012</v>
       </c>
@@ -2507,8 +3036,11 @@
       <c r="C173" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>2011</v>
       </c>
@@ -2518,8 +3050,11 @@
       <c r="C174" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>2011</v>
       </c>
@@ -2529,8 +3064,11 @@
       <c r="C175" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>2011</v>
       </c>
@@ -2540,8 +3078,11 @@
       <c r="C176" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>2011</v>
       </c>
@@ -2551,8 +3092,11 @@
       <c r="C177" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>2010</v>
       </c>
@@ -2562,8 +3106,11 @@
       <c r="C178" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>2010</v>
       </c>
@@ -2573,8 +3120,11 @@
       <c r="C179" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>2010</v>
       </c>
@@ -2584,8 +3134,11 @@
       <c r="C180" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>2010</v>
       </c>
@@ -2595,8 +3148,11 @@
       <c r="C181" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>2010</v>
       </c>
@@ -2606,8 +3162,11 @@
       <c r="C182" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>2010</v>
       </c>
@@ -2617,8 +3176,11 @@
       <c r="C183" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>2010</v>
       </c>
@@ -2628,8 +3190,11 @@
       <c r="C184" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>2010</v>
       </c>
@@ -2639,8 +3204,11 @@
       <c r="C185" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2009</v>
       </c>
@@ -2650,8 +3218,11 @@
       <c r="C186" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>2009</v>
       </c>
@@ -2661,8 +3232,11 @@
       <c r="C187" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>2009</v>
       </c>
@@ -2672,8 +3246,11 @@
       <c r="C188" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2009</v>
       </c>
@@ -2683,8 +3260,11 @@
       <c r="C189" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2009</v>
       </c>
@@ -2694,8 +3274,11 @@
       <c r="C190" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>2009</v>
       </c>
@@ -2705,8 +3288,11 @@
       <c r="C191" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>2009</v>
       </c>
@@ -2716,8 +3302,11 @@
       <c r="C192" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>2008</v>
       </c>
@@ -2727,8 +3316,11 @@
       <c r="C193" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>2008</v>
       </c>
@@ -2738,8 +3330,11 @@
       <c r="C194" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>2008</v>
       </c>
@@ -2749,8 +3344,11 @@
       <c r="C195" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>2008</v>
       </c>
@@ -2760,8 +3358,11 @@
       <c r="C196" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2008</v>
       </c>
@@ -2771,8 +3372,11 @@
       <c r="C197" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2008</v>
       </c>
@@ -2782,8 +3386,11 @@
       <c r="C198" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2008</v>
       </c>
@@ -2793,8 +3400,11 @@
       <c r="C199" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>2008</v>
       </c>
@@ -2804,8 +3414,11 @@
       <c r="C200" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>2007</v>
       </c>
@@ -2815,8 +3428,11 @@
       <c r="C201" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2007</v>
       </c>
@@ -2826,8 +3442,11 @@
       <c r="C202" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>2007</v>
       </c>
@@ -2837,8 +3456,11 @@
       <c r="C203" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>2007</v>
       </c>
@@ -2848,8 +3470,11 @@
       <c r="C204" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>2007</v>
       </c>
@@ -2859,8 +3484,11 @@
       <c r="C205" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>2007</v>
       </c>
@@ -2870,8 +3498,11 @@
       <c r="C206" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>2007</v>
       </c>
@@ -2881,8 +3512,11 @@
       <c r="C207" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2007</v>
       </c>
@@ -2892,8 +3526,11 @@
       <c r="C208" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2006</v>
       </c>
@@ -2903,8 +3540,11 @@
       <c r="C209" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>2006</v>
       </c>
@@ -2914,8 +3554,11 @@
       <c r="C210" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>2006</v>
       </c>
@@ -2925,8 +3568,11 @@
       <c r="C211" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>2006</v>
       </c>
@@ -2936,8 +3582,11 @@
       <c r="C212" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2006</v>
       </c>
@@ -2947,8 +3596,11 @@
       <c r="C213" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>2006</v>
       </c>
@@ -2958,8 +3610,11 @@
       <c r="C214" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>2005</v>
       </c>
@@ -2969,8 +3624,11 @@
       <c r="C215" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>2005</v>
       </c>
@@ -2980,8 +3638,11 @@
       <c r="C216" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>2005</v>
       </c>
@@ -2991,8 +3652,11 @@
       <c r="C217" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>2005</v>
       </c>
@@ -3002,8 +3666,11 @@
       <c r="C218" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>2005</v>
       </c>
@@ -3013,8 +3680,11 @@
       <c r="C219" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>2005</v>
       </c>
@@ -3024,8 +3694,11 @@
       <c r="C220" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2005</v>
       </c>
@@ -3035,8 +3708,11 @@
       <c r="C221" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2005</v>
       </c>
@@ -3046,8 +3722,11 @@
       <c r="C222" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2005</v>
       </c>
@@ -3057,8 +3736,11 @@
       <c r="C223" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>2004</v>
       </c>
@@ -3068,8 +3750,11 @@
       <c r="C224" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>2004</v>
       </c>
@@ -3079,8 +3764,11 @@
       <c r="C225" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>2004</v>
       </c>
@@ -3090,8 +3778,11 @@
       <c r="C226" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>2004</v>
       </c>
@@ -3101,8 +3792,11 @@
       <c r="C227" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>2004</v>
       </c>
@@ -3112,8 +3806,11 @@
       <c r="C228" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>2004</v>
       </c>
@@ -3123,8 +3820,11 @@
       <c r="C229" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>2004</v>
       </c>
@@ -3134,8 +3834,11 @@
       <c r="C230" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2004</v>
       </c>
@@ -3145,8 +3848,11 @@
       <c r="C231" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>2003</v>
       </c>
@@ -3156,8 +3862,11 @@
       <c r="C232" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>2003</v>
       </c>
@@ -3167,8 +3876,11 @@
       <c r="C233" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>2003</v>
       </c>
@@ -3178,8 +3890,11 @@
       <c r="C234" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>2003</v>
       </c>
@@ -3189,8 +3904,11 @@
       <c r="C235" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>2003</v>
       </c>
@@ -3200,8 +3918,11 @@
       <c r="C236" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>2003</v>
       </c>
@@ -3211,8 +3932,11 @@
       <c r="C237" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>2003</v>
       </c>
@@ -3222,8 +3946,11 @@
       <c r="C238" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>2003</v>
       </c>
@@ -3232,6 +3959,9 @@
       </c>
       <c r="C239" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="D239" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
